--- a/Evaluation/result/QA_eval/QA_eval_scores.xlsx
+++ b/Evaluation/result/QA_eval/QA_eval_scores.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyen\OneDrive\Documents\GitHub\CORD-19-KG\Evaluation\result\QA_eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9949CA9B-8B24-4D5C-B907-0D44419CBD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6BA92-D2FA-4B6B-81B5-07FF61040BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{66CE27DC-F80D-4085-8409-CE7E2799D4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="recall" sheetId="4" r:id="rId2"/>
+    <sheet name="precision" sheetId="3" r:id="rId3"/>
+    <sheet name="F1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>folder</t>
   </si>
@@ -52,12 +54,42 @@
   <si>
     <t>F1</t>
   </si>
+  <si>
+    <t>KG_1</t>
+  </si>
+  <si>
+    <t>KG_2</t>
+  </si>
+  <si>
+    <t>KG_3</t>
+  </si>
+  <si>
+    <t>KG_4</t>
+  </si>
+  <si>
+    <t>KG_5</t>
+  </si>
+  <si>
+    <t>KG_6</t>
+  </si>
+  <si>
+    <t>KG_7</t>
+  </si>
+  <si>
+    <t>KG_8</t>
+  </si>
+  <si>
+    <t>KG_9</t>
+  </si>
+  <si>
+    <t>KG_10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +107,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1346,1022 +1384,749 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC7641-FA90-4A0F-8668-D5C9B877FDE1}">
-  <dimension ref="A1:N51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0071B8-45C7-4CFE-814F-214D2DD89B65}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",  FALSE, B2:K2)</f>
+        <v>0.055 &amp; 0.125 &amp; 0.109 &amp; 0.14 &amp; 0.14 &amp; 0.169 &amp; 0.169 &amp; 0.169 &amp; 0.169 &amp; 0.169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L6" si="0">_xlfn.TEXTJOIN(" &amp; ",  FALSE, B3:K3)</f>
+        <v>0.086 &amp; 0.086 &amp; 0.119 &amp; 0.119 &amp; 0.119 &amp; 0.133 &amp; 0.153 &amp; 0.138 &amp; 0.155 &amp; 0.158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.019 &amp; 0.019 &amp; 0.056 &amp; 0.111 &amp; 0.148 &amp; 0.182 &amp; 0.211 &amp; 0.211 &amp; 0.228 &amp; 0.276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.037 &amp; 0.073 &amp; 0.105 &amp; 0.105 &amp; 0.105 &amp; 0.105 &amp; 0.105 &amp; 0.138 &amp; 0.138 &amp; 0.153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.056 &amp; 0.056 &amp; 0.074 &amp; 0.074 &amp; 0.074 &amp; 0.074 &amp; 0.074 &amp; 0.074 &amp; 0.074 &amp; 0.093</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED155BA2-3B1F-43B1-BA86-FF07F61914C7}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",  FALSE, B2:K2)</f>
+        <v>0.081 &amp; 0.109 &amp; 0.087 &amp; 0.103 &amp; 0.098 &amp; 0.114 &amp; 0.111 &amp; 0.105 &amp; 0.101 &amp; 0.099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.318</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L6" si="0">_xlfn.TEXTJOIN(" &amp; ",  FALSE, B3:K3)</f>
+        <v>0.455 &amp; 0.385 &amp; 0.318 &amp; 0.127 &amp; 0.079 &amp; 0.073 &amp; 0.061 &amp; 0.047 &amp; 0.05 &amp; 0.047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 &amp; 0.25 &amp; 0.333 &amp; 0.429 &amp; 0.444 &amp; 0.417 &amp; 0.5 &amp; 0.444 &amp; 0.448 &amp; 0.471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.25 &amp; 0.25 &amp; 0.3 &amp; 0.261 &amp; 0.24 &amp; 0.2 &amp; 0.2 &amp; 0.211 &amp; 0.195 &amp; 0.196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.25 &amp; 0.214 &amp; 0.222 &amp; 0.19 &amp; 0.167 &amp; 0.154 &amp; 0.138 &amp; 0.133 &amp; 0.129 &amp; 0.152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EC7641-FA90-4A0F-8668-D5C9B877FDE1}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.TEXTJOIN(" &amp; ",  FALSE, B2:K2)</f>
+        <v>0.065 &amp; 0.117 &amp; 0.097 &amp; 0.119 &amp; 0.115 &amp; 0.136 &amp; 0.134 &amp; 0.13 &amp; 0.127 &amp; 0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L6" si="0">_xlfn.TEXTJOIN(" &amp; ",  FALSE, B3:K3)</f>
+        <v>0.145 &amp; 0.141 &amp; 0.173 &amp; 0.123 &amp; 0.095 &amp; 0.094 &amp; 0.087 &amp; 0.07 &amp; 0.075 &amp; 0.072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.036 &amp; 0.034 &amp; 0.095 &amp; 0.176 &amp; 0.222 &amp; 0.253 &amp; 0.296 &amp; 0.286 &amp; 0.302 &amp; 0.348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B5" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="C5" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.065 &amp; 0.113 &amp; 0.156 &amp; 0.15 &amp; 0.146 &amp; 0.138 &amp; 0.138 &amp; 0.167 &amp; 0.162 &amp; 0.171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.115</v>
       </c>
-      <c r="J2" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="I3" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.222</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.253</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.113</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.156</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.214</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.109</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.318</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.222</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.127</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.182</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.154</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.153</v>
-      </c>
-      <c r="E33" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E38" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>8</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D41" s="2">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="E43" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.129</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="E48" s="2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>10</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2">
-        <v>4</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.153</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="D51" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.115</v>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.091 &amp; 0.088 &amp; 0.111 &amp; 0.107 &amp; 0.103 &amp; 0.1 &amp; 0.096 &amp; 0.095 &amp; 0.094 &amp; 0.115</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>